--- a/Резервное копирование.xlsx
+++ b/Резервное копирование.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itikhonov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itikhonov\Desktop\Git\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071E05AE-CA88-42D8-A644-91F6A3401CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4620963-980E-4CB7-A0DC-A02C872F85F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
   <si>
     <t>№</t>
   </si>
@@ -190,6 +190,60 @@
   </si>
   <si>
     <t>C:\Repository</t>
+  </si>
+  <si>
+    <t>Unipro_store1c</t>
+  </si>
+  <si>
+    <t>Unipro_store1c_yyyymmdd</t>
+  </si>
+  <si>
+    <t>Хринилище                        \\Gertruda\1cbkp\Unipro_store1c</t>
+  </si>
+  <si>
+    <t>Хринилище                       /nfs/backup/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                               Сервер: 192.168.2.16    1C Br</t>
+  </si>
+  <si>
+    <t>/usr/local/bin/backup-sql.sh</t>
+  </si>
+  <si>
+    <t>find /nfs/backup -mtime +8 -type f -delete</t>
+  </si>
+  <si>
+    <t>В 4:20 проверка файлов в директории /nfs/backup/ и удаление всех старше 7 дней</t>
+  </si>
+  <si>
+    <t>Хринилище                       /mnt/backupsql/monthly/</t>
+  </si>
+  <si>
+    <t>/usr/local/bin/backup-monthly-sql.sh</t>
+  </si>
+  <si>
+    <t>find /mnt/backupsql/monthly -mtime +102 -type f -delete</t>
+  </si>
+  <si>
+    <t>17ого ежемесечно</t>
+  </si>
+  <si>
+    <t>28ого ежемесечно</t>
+  </si>
+  <si>
+    <t>В 22:15 каждый день отрабатывает скрипт на бэкап всех баз в директорию /nfs/backup/</t>
+  </si>
+  <si>
+    <t>В 3:30 , 28ого числа каждого месяца отрабатывает скрипт на бэкап баз в директорию /mnt/backupsql/monthly/</t>
+  </si>
+  <si>
+    <t>3 последних месяца</t>
+  </si>
+  <si>
+    <t>В 2:20 проверка файлов в директории /mnt/backupsql/monthly/ и удаление всех старше 101 дней</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В 3:30 , 17ого числа каждого месяца отрабатывает скрипт на бэкап баз в директорию /mnt/backupsql/monthly/ </t>
   </si>
 </sst>
 </file>
@@ -213,7 +267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +292,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -420,24 +480,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -452,6 +497,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -461,67 +545,122 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -804,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -828,405 +967,405 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="37"/>
+      <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="34">
         <v>0.13541666666666666</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="12">
         <v>7</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="3">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="9"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="7" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="3">
         <v>0.24305555555555555</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21">
+      <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="34">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="12">
         <v>7</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="3">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="3">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="N10" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="19">
+      <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="13"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="27"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="34"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
       <c r="N13" s="28"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="34"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="34">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="12">
         <v>7</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
       <c r="N14" s="28"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="16"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="29"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
@@ -1235,112 +1374,112 @@
       <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="19">
+      <c r="A16" s="16">
         <v>4</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="13"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="27"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="34"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
       <c r="N18" s="28"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
-      <c r="B19" s="33" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="34">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="12">
         <v>7</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
       <c r="N19" s="28"/>
     </row>
     <row r="20" spans="1:14" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="16"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="29"/>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
@@ -1349,309 +1488,917 @@
       <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="21">
+      <c r="A21" s="16">
         <v>5</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="21"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="17"/>
+      <c r="B22" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="17"/>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="28"/>
+    </row>
+    <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="17"/>
+      <c r="B24" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="34">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="12">
+        <v>7</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="28"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="18"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="31"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="13">
+        <v>5</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="22"/>
-      <c r="B22" s="3" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="21"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
+      <c r="B27" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="22"/>
-      <c r="B23" s="4" t="s">
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="14"/>
+      <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4" t="s">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="22"/>
-      <c r="B24" s="15" t="s">
+    <row r="29" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="14"/>
+      <c r="B29" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C29" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D29" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E29" s="34">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F29" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H29" s="12">
         <v>5</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M29" s="8">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="N29" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="23"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7" t="s">
+    <row r="30" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="15"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M30" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="N25" s="24" t="s">
+      <c r="N30" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="19">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="16">
         <v>6</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B31" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="13"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="34"/>
-      <c r="B27" s="3" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="21"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="17"/>
+      <c r="B32" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="27"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="34"/>
-      <c r="B28" s="4" t="s">
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="25"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="17"/>
+      <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="28"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="34"/>
-      <c r="B29" s="33" t="s">
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="28"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="17"/>
+      <c r="B34" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C34" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D34" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E34" s="34">
         <v>0</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F34" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G34" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H34" s="12">
         <v>7</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="28"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="20"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="31"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="28"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="18"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="31"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="36">
+        <v>7</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" s="36"/>
+      <c r="B39" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" s="36"/>
+      <c r="B40" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="37"/>
+      <c r="H40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" s="36"/>
+      <c r="B41" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="7">
+        <v>7</v>
+      </c>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" s="36"/>
+      <c r="B42" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="8">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="16">
+        <v>8</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" s="17"/>
+      <c r="B44" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" s="17"/>
+      <c r="B45" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="37"/>
+      <c r="H45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="44"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="46"/>
+    </row>
+    <row r="46" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="17"/>
+      <c r="B46" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="57"/>
+      <c r="D46" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="60">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" s="43"/>
+      <c r="H46" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46" s="47"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="49"/>
+    </row>
+    <row r="47" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="17"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="61"/>
+      <c r="F47" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="43"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="49"/>
+    </row>
+    <row r="48" spans="1:14" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="18"/>
+      <c r="B48" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="41"/>
+      <c r="D48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="8">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="43"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="52"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:N26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I27:N30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I17:N20"/>
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I12:N15"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+  <mergeCells count="109">
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="I45:N48"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B44:N44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="B39:N39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:N42"/>
+    <mergeCell ref="B38:N38"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:N31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="I32:N35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:N11"/>
@@ -1668,20 +2415,47 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I12:N15"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="I17:N20"/>
+    <mergeCell ref="B21:N21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="I22:N25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:N26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H24:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Резервное копирование.xlsx
+++ b/Резервное копирование.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itikhonov\Desktop\Git\admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79651\Desktop\Git\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4620963-980E-4CB7-A0DC-A02C872F85F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="79">
   <si>
     <t>№</t>
   </si>
@@ -210,9 +209,6 @@
     <t>/usr/local/bin/backup-sql.sh</t>
   </si>
   <si>
-    <t>find /nfs/backup -mtime +8 -type f -delete</t>
-  </si>
-  <si>
     <t>В 4:20 проверка файлов в директории /nfs/backup/ и удаление всех старше 7 дней</t>
   </si>
   <si>
@@ -222,9 +218,6 @@
     <t>/usr/local/bin/backup-monthly-sql.sh</t>
   </si>
   <si>
-    <t>find /mnt/backupsql/monthly -mtime +102 -type f -delete</t>
-  </si>
-  <si>
     <t>17ого ежемесечно</t>
   </si>
   <si>
@@ -237,19 +230,43 @@
     <t>В 3:30 , 28ого числа каждого месяца отрабатывает скрипт на бэкап баз в директорию /mnt/backupsql/monthly/</t>
   </si>
   <si>
-    <t>3 последних месяца</t>
-  </si>
-  <si>
     <t>В 2:20 проверка файлов в директории /mnt/backupsql/monthly/ и удаление всех старше 101 дней</t>
   </si>
   <si>
     <t xml:space="preserve">В 3:30 , 17ого числа каждого месяца отрабатывает скрипт на бэкап баз в директорию /mnt/backupsql/monthly/ </t>
+  </si>
+  <si>
+    <t>2 последних месяца</t>
+  </si>
+  <si>
+    <t>Хринилище                      /nfs/backup/monthly/</t>
+  </si>
+  <si>
+    <t>/usr/local/bin/backup28_17.sh</t>
+  </si>
+  <si>
+    <t>find /mnt/backupsql/monthly -mtime +65 -type f -delete</t>
+  </si>
+  <si>
+    <t>find /nfs/backup -name "202*.gz" -mtime +8 -type f -delete</t>
+  </si>
+  <si>
+    <t>Выборка файлов идет по имени , чтобы не удалять быкапы в /nfc/backup/monthly</t>
+  </si>
+  <si>
+    <t>В 3:20 , 28ого числа каждого месяца отрабатывает скрипт на бэкап баз в директорию /nfs/backup/monthly/</t>
+  </si>
+  <si>
+    <t>В 3:20 , 17ого числа каждого месяца отрабатывает скрипт на бэкап баз в директорию /nfs/backup/monthly/</t>
+  </si>
+  <si>
+    <t>find /nfs/backup/monthly -mtime +170 -type f -delete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -512,21 +529,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,6 +553,75 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -578,90 +665,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,72 +986,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51:N54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.90625" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" customWidth="1"/>
-    <col min="7" max="7" width="31.36328125" customWidth="1"/>
-    <col min="8" max="8" width="23.26953125" customWidth="1"/>
-    <col min="9" max="9" width="29.81640625" customWidth="1"/>
-    <col min="10" max="10" width="23.1796875" customWidth="1"/>
-    <col min="11" max="11" width="30.7265625" customWidth="1"/>
-    <col min="12" max="13" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" customWidth="1"/>
+    <col min="9" max="9" width="29.77734375" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="30.77734375" customWidth="1"/>
+    <col min="12" max="13" width="17.5546875" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="21"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="22" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="45"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="33"/>
+      <c r="B2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="33"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1029,10 +1073,10 @@
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="37"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1046,35 +1090,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
+    <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="57">
         <v>0.13541666666666666</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="37">
         <v>7</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="37" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -1091,17 +1135,17 @@
       </c>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
+    <row r="5" spans="1:15" ht="29.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1115,48 +1159,48 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
+    <row r="6" spans="1:15" ht="29.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="60">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="22" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="45"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="61"/>
+      <c r="B7" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="61"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1195,33 +1239,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="35" t="s">
+    <row r="9" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="61"/>
+      <c r="B9" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="57">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="37">
         <v>7</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="37" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1237,17 +1281,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
+    <row r="10" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="62"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
         <v>13</v>
@@ -1259,46 +1303,46 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="16">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="21"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="22" t="s">
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="45"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="49"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1320,99 +1364,99 @@
       <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="28"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
-      <c r="B14" s="35" t="s">
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="52"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="57">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="37">
         <v>7</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="28"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="31"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="52"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="55"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
         <v>4</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="21"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
-      <c r="B17" s="22" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="45"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="49"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1434,99 +1478,99 @@
       <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="28"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
-      <c r="B19" s="32" t="s">
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="52"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="57">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="37">
         <v>7</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="28"/>
-    </row>
-    <row r="20" spans="1:14" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="31"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="16">
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="52"/>
+    </row>
+    <row r="20" spans="1:14" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="55"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
         <v>5</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="17"/>
-      <c r="B22" s="22" t="s">
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="45"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="49"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1548,101 +1592,101 @@
       <c r="H23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="28"/>
-    </row>
-    <row r="24" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="17"/>
-      <c r="B24" s="32" t="s">
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="52"/>
+    </row>
+    <row r="24" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="57">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="37">
         <v>7</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="28"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="18"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="31"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="13">
+      <c r="I24" s="50"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="52"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="55"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="60">
         <v>5</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="21"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="14"/>
-      <c r="B27" s="22" t="s">
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="45"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="61"/>
+      <c r="B27" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22" t="s">
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="14"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="61"/>
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
@@ -1681,33 +1725,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="14"/>
-      <c r="B29" s="35" t="s">
+    <row r="29" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="61"/>
+      <c r="B29" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="57">
         <v>0.20833333333333334</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="37">
         <v>5</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="37" t="s">
         <v>29</v>
       </c>
       <c r="K29" s="7" t="s">
@@ -1723,17 +1767,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="15"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
+    <row r="30" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" s="62"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="37"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7" t="s">
         <v>13</v>
@@ -1745,46 +1789,46 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="16">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="17">
         <v>6</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="17"/>
-      <c r="B32" s="22" t="s">
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="45"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="25"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" s="17"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="49"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1806,582 +1850,667 @@
       <c r="H33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="28"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" s="17"/>
-      <c r="B34" s="32" t="s">
+      <c r="I33" s="50"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="52"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="57">
         <v>0</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="37">
         <v>7</v>
       </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="28"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A35" s="18"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="31"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" s="36">
+      <c r="I34" s="50"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="52"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="55"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="33">
         <v>7</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39" s="36"/>
-      <c r="B39" s="54" t="s">
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="33"/>
+      <c r="B39" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40" s="36"/>
-      <c r="B40" s="37" t="s">
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="33"/>
+      <c r="B40" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="37"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="37" t="s">
+      <c r="F40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="37"/>
+      <c r="G40" s="36"/>
       <c r="H40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" s="36"/>
-      <c r="B41" s="12" t="s">
+      <c r="I40" s="24"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="33"/>
+      <c r="B41" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12" t="s">
+      <c r="C41" s="37"/>
+      <c r="D41" s="37" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="8">
         <v>0.92708333333333337</v>
       </c>
-      <c r="F41" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="33"/>
+      <c r="F41" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="42"/>
       <c r="H41" s="7">
         <v>7</v>
       </c>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" s="36"/>
-      <c r="B42" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="33"/>
+      <c r="B42" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="8">
         <v>0.18055555555555555</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F42" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="42"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="J42" s="66"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="17">
+        <v>8</v>
+      </c>
+      <c r="B43" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" s="16">
-        <v>8</v>
-      </c>
-      <c r="B43" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" s="17"/>
-      <c r="B44" s="54" t="s">
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" s="17"/>
-      <c r="B45" s="37" t="s">
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="37"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F45" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="37"/>
+      <c r="G45" s="36"/>
       <c r="H45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="44"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="46"/>
-    </row>
-    <row r="46" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="17"/>
-      <c r="B46" s="56" t="s">
+      <c r="I45" s="24"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="26"/>
+    </row>
+    <row r="46" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="39"/>
+      <c r="D46" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="60">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F46" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" s="43"/>
-      <c r="H46" s="12" t="s">
+      <c r="E46" s="20">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="23"/>
+      <c r="H46" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="I46" s="47"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="49"/>
-    </row>
-    <row r="47" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="17"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="59"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="29"/>
+    </row>
+    <row r="47" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="61"/>
-      <c r="F47" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="43"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="49"/>
-    </row>
-    <row r="48" spans="1:14" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="18"/>
-      <c r="B48" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="41"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="29"/>
+    </row>
+    <row r="48" spans="1:14" ht="101.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="23"/>
       <c r="D48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="8">
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="F48" s="42" t="s">
+      <c r="F48" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="23"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="32"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="17">
+        <v>9</v>
+      </c>
+      <c r="B49" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="52"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A49" s="55"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="55"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51" s="55"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="55"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="55"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="36"/>
+      <c r="D51" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="36"/>
+      <c r="H51" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="24"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="26"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="68"/>
+      <c r="D52" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="20">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G52" s="23"/>
+      <c r="H52" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I52" s="27"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="29"/>
+    </row>
+    <row r="53" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="23"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="29"/>
+    </row>
+    <row r="54" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="19"/>
+      <c r="B54" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="12">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="23"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="32"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="I45:N48"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="B44:N44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="B39:N39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:N42"/>
-    <mergeCell ref="B38:N38"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:N31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="I32:N35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
+  <mergeCells count="123">
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="I40:J41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="B49:N49"/>
+    <mergeCell ref="B50:N50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I51:N54"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:N26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="B21:N21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="I22:N25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I12:N15"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="I17:N20"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="I27:N27"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="J29:J30"/>
@@ -2406,56 +2535,40 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I12:N15"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="I17:N20"/>
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="I22:N25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:N26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:N31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="I32:N35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="I45:N48"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B44:N44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="B39:N39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B38:N38"/>
+    <mergeCell ref="D41:D42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
